--- a/r4-naboto-development/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-naboto-development/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T13:22:13+00:00</t>
+    <t>2022-11-02T13:31:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
